--- a/python/[06]-record.xlsx
+++ b/python/[06]-record.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shanthan\Documents\Code\Github\notes\python\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A692EDB-7451-4E04-9C83-F80A514F2B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>EASY</t>
   </si>
@@ -47,50 +56,79 @@
   </si>
   <si>
     <t>Alternate Seating</t>
+  </si>
+  <si>
+    <t>Ternary Array (*)</t>
+  </si>
+  <si>
+    <t>Zero Row Zero Column</t>
+  </si>
+  <si>
+    <t>Number Reverse</t>
+  </si>
+  <si>
+    <t>Number of Multiples</t>
+  </si>
+  <si>
+    <t>Prime or not</t>
+  </si>
+  <si>
+    <t>Fuel Tank</t>
+  </si>
+  <si>
+    <t>Point Location</t>
+  </si>
+  <si>
+    <t>Balanced Splitting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="7"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFFF9900"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -101,7 +139,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -111,50 +149,46 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -344,102 +378,153 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.75"/>
-    <col customWidth="1" min="2" max="2" width="18.25"/>
-    <col customWidth="1" min="3" max="3" width="18.88"/>
-    <col customWidth="1" min="5" max="5" width="20.5"/>
-    <col customWidth="1" min="6" max="6" width="25.63"/>
-    <col customWidth="1" min="7" max="7" width="25.5"/>
-    <col customWidth="1" min="9" max="9" width="25.63"/>
-    <col customWidth="1" min="10" max="10" width="25.38"/>
-    <col customWidth="1" min="11" max="11" width="26.0"/>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" customWidth="1"/>
+    <col min="10" max="10" width="25.33203125" customWidth="1"/>
+    <col min="11" max="11" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="4"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="5">
-      <c r="E5" s="7" t="s">
+      <c r="L3" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6">
-      <c r="E6" s="7" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7">
-      <c r="E7" s="2" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8">
-      <c r="E8" s="2" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9">
-      <c r="E9" s="2" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -448,6 +533,6 @@
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="I1:K1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/python/[06]-record.xlsx
+++ b/python/[06]-record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shanthan\Documents\Code\Github\notes\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A692EDB-7451-4E04-9C83-F80A514F2B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0CF7BB-1B27-48A9-9E03-7DB3C1D6576D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>EASY</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Balanced Splitting</t>
+  </si>
+  <si>
+    <t>Number of Days</t>
   </si>
 </sst>
 </file>
@@ -388,10 +391,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -407,7 +410,7 @@
     <col min="11" max="11" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -427,10 +430,10 @@
       <c r="K1" s="6"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -462,27 +465,27 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
@@ -525,6 +528,11 @@
     <row r="17" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E17" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/python/[06]-record.xlsx
+++ b/python/[06]-record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shanthan\Documents\Code\Github\notes\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0CF7BB-1B27-48A9-9E03-7DB3C1D6576D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABB7839-D822-4EAD-96D0-7246752F3F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>EASY</t>
   </si>
@@ -46,43 +46,64 @@
     <t>Mean Median Mode</t>
   </si>
   <si>
-    <t>Longest Contigious 1's</t>
-  </si>
-  <si>
-    <t>Is Bitonic Sequence</t>
-  </si>
-  <si>
-    <t>Max Min partition</t>
-  </si>
-  <si>
-    <t>Alternate Seating</t>
-  </si>
-  <si>
-    <t>Ternary Array (*)</t>
-  </si>
-  <si>
-    <t>Zero Row Zero Column</t>
-  </si>
-  <si>
-    <t>Number Reverse</t>
-  </si>
-  <si>
-    <t>Number of Multiples</t>
-  </si>
-  <si>
-    <t>Prime or not</t>
-  </si>
-  <si>
-    <t>Fuel Tank</t>
-  </si>
-  <si>
-    <t>Point Location</t>
-  </si>
-  <si>
-    <t>Balanced Splitting</t>
-  </si>
-  <si>
     <t>Number of Days</t>
+  </si>
+  <si>
+    <t>Prefix Suffix</t>
+  </si>
+  <si>
+    <t>Basic Calculator</t>
+  </si>
+  <si>
+    <t>Long Pressed Keys</t>
+  </si>
+  <si>
+    <t>String GCD</t>
+  </si>
+  <si>
+    <t>*Longest Contigious 1's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Alternate Seating </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Fuel Tank </t>
+  </si>
+  <si>
+    <t>*Compress String</t>
+  </si>
+  <si>
+    <t>*Is Bitonic Sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Ternary Array </t>
+  </si>
+  <si>
+    <t>*Zero Row Zero Column</t>
+  </si>
+  <si>
+    <t>*Max Min partition</t>
+  </si>
+  <si>
+    <t>*Inverted Pyramid</t>
+  </si>
+  <si>
+    <t>*Pascals Triangle</t>
+  </si>
+  <si>
+    <t>*Point Location</t>
+  </si>
+  <si>
+    <t>*Number Reverse</t>
+  </si>
+  <si>
+    <t>*Number of Multiples</t>
+  </si>
+  <si>
+    <t>*Prime or not</t>
+  </si>
+  <si>
+    <t>*Balanced Splitting</t>
   </si>
 </sst>
 </file>
@@ -391,10 +412,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="172" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -472,67 +493,102 @@
     </row>
     <row r="6" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="E6" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E12" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E13" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E16" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E17" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E18" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
